--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTesting" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="145">
   <si>
     <t>S.No</t>
   </si>
@@ -193,13 +193,280 @@
   </si>
   <si>
     <t>Submit form without entering the details of parish in which marriage is held</t>
+  </si>
+  <si>
+    <t>Death Register</t>
+  </si>
+  <si>
+    <t>submit form without entering the name</t>
+  </si>
+  <si>
+    <t>should flash an error message(enter the name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit form without entering the address </t>
+  </si>
+  <si>
+    <t>should flash an error message(Enter the address)</t>
+  </si>
+  <si>
+    <t>submit form without entering age and date of death</t>
+  </si>
+  <si>
+    <t>should flash an error message(Enter age and addrsss</t>
+  </si>
+  <si>
+    <t>submit form without entering the date of funeral</t>
+  </si>
+  <si>
+    <t>should flash an error message(Enter the date of funeral)</t>
+  </si>
+  <si>
+    <t>submit form without entering the name of priest</t>
+  </si>
+  <si>
+    <t>Church Income Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit form without entering the date </t>
+  </si>
+  <si>
+    <t>submit form without entering the family id</t>
+  </si>
+  <si>
+    <t>submit form without entering the source name of income</t>
+  </si>
+  <si>
+    <t>submit form without entering the account description</t>
+  </si>
+  <si>
+    <t>submit form without entering the amount</t>
+  </si>
+  <si>
+    <t>Parish Hall Booking Register</t>
+  </si>
+  <si>
+    <t>submit form without entering the address</t>
+  </si>
+  <si>
+    <t>submit form without entering the date</t>
+  </si>
+  <si>
+    <t>submit form without entering the name of auditoriam</t>
+  </si>
+  <si>
+    <t>should flash an arrror message</t>
+  </si>
+  <si>
+    <t>submit form without entering the mob no</t>
+  </si>
+  <si>
+    <t>submit form without entering the purpose and time</t>
+  </si>
+  <si>
+    <t>prayer Register</t>
+  </si>
+  <si>
+    <t>submit form without entering the prayer group</t>
+  </si>
+  <si>
+    <t>should flash an errror message</t>
+  </si>
+  <si>
+    <t>submit form without entering the family id,name and address</t>
+  </si>
+  <si>
+    <t>submit form without entering the prayer type,prayer time and prayer date</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Remarks (if any)</t>
+  </si>
+  <si>
+    <t>Login page</t>
+  </si>
+  <si>
+    <t>Click on the Login button without entering user name or password</t>
+  </si>
+  <si>
+    <t>Messages like "Please enter User Name" and "Please Enter Password" should appear.</t>
+  </si>
+  <si>
+    <t>Messages "Please enter User Name" and "Please Enter Password" appear.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Enter a non-existing user name password and click on the Login button</t>
+  </si>
+  <si>
+    <t>A message "Invalid User Name" appears</t>
+  </si>
+  <si>
+    <t>Enter a valid user name but wrong password and click on the Login button</t>
+  </si>
+  <si>
+    <t>Message like "Wrong Password" should appear</t>
+  </si>
+  <si>
+    <t>A message "Wrong Password" appears</t>
+  </si>
+  <si>
+    <t>Enter a valid user name and password and click on the Login button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The page should be navigated to the home page </t>
+  </si>
+  <si>
+    <t>The page is navigated to the home page</t>
+  </si>
+  <si>
+    <t>Click on submit button without entering the family address,mobno,family head name,gender,date of birth,baptism date</t>
+  </si>
+  <si>
+    <t>Message like Please Enter Family head,Please enter address,Please enter mob.no,Please enter gender,Please enter date of birth,please enter date of baptisam</t>
+  </si>
+  <si>
+    <t>Enter the name with digits</t>
+  </si>
+  <si>
+    <t>Message like"pleas enter valid name " should appear</t>
+  </si>
+  <si>
+    <t>Message like "please enter valid name should appear"</t>
+  </si>
+  <si>
+    <t>Enter the mobile number with more than 10 digits</t>
+  </si>
+  <si>
+    <t>Message like"pleas enter valid Mobile number " should appear</t>
+  </si>
+  <si>
+    <t>Message like "please enter valid mobile number should appear"</t>
+  </si>
+  <si>
+    <t>Enter an invalid Email-id</t>
+  </si>
+  <si>
+    <t>Message like "plaese enter valid mail-id " should appear</t>
+  </si>
+  <si>
+    <t>Message like "please enter valid email_id should appear"</t>
+  </si>
+  <si>
+    <t>uploading invalid photo files</t>
+  </si>
+  <si>
+    <t>Message like "please upload .jpg , .png etc files"</t>
+  </si>
+  <si>
+    <t>Message like "p;ease upload .jpg, .png etc files"</t>
+  </si>
+  <si>
+    <t>Association member Registration form</t>
+  </si>
+  <si>
+    <t>click on save button without etering the name,address,mobno,association name,position,year from and year to</t>
+  </si>
+  <si>
+    <t>Message like "please enter valid name",please enter valid address",please enter valid mob.no",please enter valid asssociatopn name","please enter valid position",please enter valid year" should appear.</t>
+  </si>
+  <si>
+    <t>Message like "Wrong username" should appear</t>
+  </si>
+  <si>
+    <t>Enter the association name,position ,year from,year to not from the drop downlist</t>
+  </si>
+  <si>
+    <t>Message like" select  from the list" will appear</t>
+  </si>
+  <si>
+    <t>click on submit button wihout entering the baptised person name,dob,gender,date of baptisam,child fathername,child mother name,baptised nane,baptised parish name,vicer name</t>
+  </si>
+  <si>
+    <t>Message like "please enter the baptised person name",please enter dob","please enter gender","please enter date of baptisam","please enter child fathername","please enter child mother name",please enter baptised name","please enter baptised parish name,"please enter vicer name"</t>
+  </si>
+  <si>
+    <t>click on submit button without entering the name of parish,bride details like name,address,father name, mother name,ade,dob,occupation.</t>
+  </si>
+  <si>
+    <t>Message like plesae enter "name of parish", please fill bridedetails will appear"</t>
+  </si>
+  <si>
+    <t>click on submit button without entering the bride groom details like, name,address.fathername,mother name,age,dob,occupation</t>
+  </si>
+  <si>
+    <t>Message like "please enter bride groom details should appear"</t>
+  </si>
+  <si>
+    <t>click on submit button without entering the marrige date, name of the priest, withness</t>
+  </si>
+  <si>
+    <t>Message like "please enter the marriage date", please enter the vicar name" will appear</t>
+  </si>
+  <si>
+    <t>Enter the age using charcter</t>
+  </si>
+  <si>
+    <t>Message like "invalid age will appear"</t>
+  </si>
+  <si>
+    <t>Death register</t>
+  </si>
+  <si>
+    <t>click on submit button without entering the name,address,date of death,date of funeral,age,name of priest.</t>
+  </si>
+  <si>
+    <t>message like  "please enter name", "please enter address",please enter age","please enter date of birth",Please enter date of death","pleadse enter date of funeral",:please enter name of vicer"</t>
+  </si>
+  <si>
+    <t>enter the name using digits and enter the name of priest using digits</t>
+  </si>
+  <si>
+    <t>Message like "invalid name will appear"</t>
+  </si>
+  <si>
+    <t>Enter the age using characters</t>
+  </si>
+  <si>
+    <t>Message like "invalid age"</t>
+  </si>
+  <si>
+    <t>Church income register</t>
+  </si>
+  <si>
+    <t>click on save button without entering the date,family id, source id,account description, amount</t>
+  </si>
+  <si>
+    <t>Message like "please enter the mount description:,"please  enter th family id"."please enter the source id","please enter the amount description","please enter the amount" will appear</t>
+  </si>
+  <si>
+    <t>Parish Prayer Register</t>
+  </si>
+  <si>
+    <t>click on save button without entering the prayer group,family id,name,address,prayer type,prayer tyme,prayer date</t>
+  </si>
+  <si>
+    <t>Message like "please enter the prayer group","please select family id",please select prayer type","please select praye date "will appear</t>
+  </si>
+  <si>
+    <t>Parish hall booking</t>
+  </si>
+  <si>
+    <t>click on save button without entering the name,address,date,auditoriam,mob.no,purpose,time</t>
+  </si>
+  <si>
+    <t>Message like "please enter name","please enter address","please enter mob.no","please enter date","please enter auditoriam","please enter purpose","please enter time"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +482,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,10 +523,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,19 +827,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" customWidth="1"/>
     <col min="5" max="5" width="42.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -862,6 +1163,9 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
@@ -879,6 +1183,9 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -895,7 +1202,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
@@ -915,7 +1225,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -932,7 +1245,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
@@ -949,7 +1265,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
@@ -966,7 +1285,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -983,7 +1305,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
@@ -1000,7 +1325,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
@@ -1020,7 +1348,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -1037,7 +1368,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
@@ -1054,7 +1388,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
       <c r="C26" t="s">
         <v>52</v>
       </c>
@@ -1071,7 +1408,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -1088,7 +1428,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
       <c r="C28" t="s">
         <v>55</v>
       </c>
@@ -1102,6 +1445,353 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1113,12 +1803,605 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>